--- a/pw/resources.xlsx
+++ b/pw/resources.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Org" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="team services" sheetId="3" r:id="rId2"/>
+    <sheet name="Team Apps" sheetId="1" r:id="rId3"/>
+    <sheet name="Team" sheetId="4" r:id="rId4"/>
+    <sheet name="team resources" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Team!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="300">
   <si>
     <t>Team Apps</t>
   </si>
@@ -576,18 +579,6 @@
     <t>GSD Systems and Platform Operation Services</t>
   </si>
   <si>
-    <t>DIS - Application Development</t>
-  </si>
-  <si>
-    <t>DIS - Business Intelligence</t>
-  </si>
-  <si>
-    <t>DIS - Customer Experience Management Reporting and Analytics</t>
-  </si>
-  <si>
-    <t>DIS - GSD - Qlikview Development</t>
-  </si>
-  <si>
     <t>GSD - Platform Admin</t>
   </si>
   <si>
@@ -600,39 +591,6 @@
     <t>GSD - Scheduling Automation</t>
   </si>
   <si>
-    <t>DIS - GSD Release Management</t>
-  </si>
-  <si>
-    <t>DIS - GSD Investment Information Services</t>
-  </si>
-  <si>
-    <t>DIS - GSD Production Services</t>
-  </si>
-  <si>
-    <t>DIS - Integration Technology Services - Infrastructure</t>
-  </si>
-  <si>
-    <t>DIS - JH SAS Masking</t>
-  </si>
-  <si>
-    <t>DIS - JH SAS Platform Services</t>
-  </si>
-  <si>
-    <t>DIS - GSD GF L2 Application Support</t>
-  </si>
-  <si>
-    <t>DIS - GSD Inv Application Support</t>
-  </si>
-  <si>
-    <t>DIS - Application Support</t>
-  </si>
-  <si>
-    <t>DIS - Global Reporting</t>
-  </si>
-  <si>
-    <t>DIS - SAS REM</t>
-  </si>
-  <si>
     <t>Team Org</t>
   </si>
   <si>
@@ -832,6 +790,147 @@
   </si>
   <si>
     <t>resources/workplace/02TEAM OVERVIEW/Team Org/teamorg_transitionservices.html</t>
+  </si>
+  <si>
+    <t>GSD - Qlikview Development</t>
+  </si>
+  <si>
+    <t>Application Development</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Customer Experience Management Reporting and Analytics</t>
+  </si>
+  <si>
+    <t>GSD Release Management</t>
+  </si>
+  <si>
+    <t>GSD Production Services</t>
+  </si>
+  <si>
+    <t>Integration Technology Services - Infrastructure</t>
+  </si>
+  <si>
+    <t>JH SAS Masking</t>
+  </si>
+  <si>
+    <t>JH SAS Platform Services</t>
+  </si>
+  <si>
+    <t>GSD GF L2 Application Support</t>
+  </si>
+  <si>
+    <t>GSD Inv Application Support</t>
+  </si>
+  <si>
+    <t>Application Support</t>
+  </si>
+  <si>
+    <t>Global Reporting</t>
+  </si>
+  <si>
+    <t>SAS REM</t>
+  </si>
+  <si>
+    <t>9E337DB5-4195-4A12-9D5A-FE983E5AA690</t>
+  </si>
+  <si>
+    <t>D4FC0E79-64D3-4BCB-A24D-670625DB2E30</t>
+  </si>
+  <si>
+    <t>5C286966-1DA6-40D5-891D-49803D55DC67</t>
+  </si>
+  <si>
+    <t>E06984A0-454B-488D-9F68-293730740B68</t>
+  </si>
+  <si>
+    <t>32A311FB-A6AF-48D6-B462-E6AC87B41CD5</t>
+  </si>
+  <si>
+    <t>245C2EF0-E827-443E-A482-0BA35A5A9542</t>
+  </si>
+  <si>
+    <t>7AD38C4C-A5BB-4789-8A0E-37F703EB68E5</t>
+  </si>
+  <si>
+    <t>A2BC6517-8B59-48AF-B938-2C3BA09CB335</t>
+  </si>
+  <si>
+    <t>A4E979DA-0A52-45E2-92C4-44F807434277</t>
+  </si>
+  <si>
+    <t>FB5B196D-D853-4E67-896A-82F15D1B701A</t>
+  </si>
+  <si>
+    <t>424A57A4-9897-4FB8-844C-CAC91954E0D2</t>
+  </si>
+  <si>
+    <t>7C6C16A5-0E78-49AF-93B9-83AE2767D480</t>
+  </si>
+  <si>
+    <t>63A7719F-6761-4E20-BB01-AE2FB848FBD2</t>
+  </si>
+  <si>
+    <t>59D5A427-EF1F-468E-8469-D64EE7F00CC8</t>
+  </si>
+  <si>
+    <t>E8065269-420D-45C9-815E-927C6B175944</t>
+  </si>
+  <si>
+    <t>37E4BB87-BCE1-41A1-AE57-0FEC2A358E44</t>
+  </si>
+  <si>
+    <t>2E952C23-D708-4ED2-8F80-C87E824BC18C</t>
+  </si>
+  <si>
+    <t>5A918E6D-58AD-4BCE-8A7C-9AB1AC1DB5F9</t>
+  </si>
+  <si>
+    <t>C8C5518F-1D54-4CF1-BEF2-411581FEDC15</t>
+  </si>
+  <si>
+    <t>3F156D2C-6982-481D-A6D5-36BCAAC90EBD</t>
+  </si>
+  <si>
+    <t>0233D49B-8164-4AB8-89E2-229F1C7336CD</t>
+  </si>
+  <si>
+    <t>61A82B14-C7C8-49BC-BC95-24B82087DDAC</t>
+  </si>
+  <si>
+    <t>BC258046-6681-4ABD-B8B0-F1973465B359</t>
+  </si>
+  <si>
+    <t>65873782-FDDF-41BF-B8F7-2C022323B803</t>
+  </si>
+  <si>
+    <t>D9BCEA93-0B7E-47CB-BAFA-D13BAEC39861</t>
+  </si>
+  <si>
+    <t>8586A7A6-BCBB-4E4B-9999-54B001A5ED55</t>
+  </si>
+  <si>
+    <t>25995DD5-48DA-439F-8E17-420D21E7DC7D</t>
+  </si>
+  <si>
+    <t>31DC3BC9-9481-4DE8-99CE-31C006D09A5A</t>
+  </si>
+  <si>
+    <t>621D9CAF-0214-4663-958D-D37B8495040B</t>
+  </si>
+  <si>
+    <t>708A1A10-D8DB-4978-BC39-581B4285760B</t>
+  </si>
+  <si>
+    <t>D065165F-1C16-43C1-9F35-C4356E0AADE2</t>
+  </si>
+  <si>
+    <t>E0977459-7530-45E4-9B75-5E7E07C70AD4</t>
+  </si>
+  <si>
+    <t>DIS GSD Investment Information Services</t>
   </si>
 </sst>
 </file>
@@ -847,15 +946,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -863,13 +980,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,30 +1327,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
@@ -1217,16 +1358,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1234,16 +1375,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1251,16 +1392,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1268,16 +1409,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1285,16 +1426,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1302,16 +1443,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1319,16 +1460,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1336,16 +1477,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1353,16 +1494,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1370,16 +1511,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1387,16 +1528,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1404,16 +1545,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1421,16 +1562,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1438,16 +1579,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1455,16 +1596,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1472,16 +1613,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1489,16 +1630,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1506,16 +1647,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1523,16 +1664,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1540,16 +1681,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1557,16 +1698,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1574,16 +1715,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1591,16 +1732,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1608,16 +1749,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1625,16 +1766,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1642,16 +1783,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1659,16 +1800,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1676,16 +1817,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1693,16 +1834,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1710,16 +1851,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1727,16 +1868,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1744,16 +1885,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1769,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:E33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,394 +3072,1423 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C34"/>
+      <selection activeCell="E33" sqref="E2:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>148</v>
+      <c r="E13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" t="s">
-        <v>182</v>
+        <v>146</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>164</v>
+      <c r="E29" t="s">
+        <v>294</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F34">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:C98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pw/resources.xlsx
+++ b/pw/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team Org" sheetId="6" r:id="rId1"/>
@@ -17,9 +17,12 @@
     <sheet name="Team Apps" sheetId="1" r:id="rId3"/>
     <sheet name="Team" sheetId="4" r:id="rId4"/>
     <sheet name="team resources" sheetId="5" r:id="rId5"/>
+    <sheet name="Team hierarchy" sheetId="7" r:id="rId6"/>
+    <sheet name="LEaders" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Team!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Team hierarchy'!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="427">
   <si>
     <t>Team Apps</t>
   </si>
@@ -931,6 +934,387 @@
   </si>
   <si>
     <t>DIS GSD Investment Information Services</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>applicationdevelopment</t>
+  </si>
+  <si>
+    <t>paulyn</t>
+  </si>
+  <si>
+    <t>timothy</t>
+  </si>
+  <si>
+    <t>applicationsupport</t>
+  </si>
+  <si>
+    <t>arvan</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>jonard</t>
+  </si>
+  <si>
+    <t>gk</t>
+  </si>
+  <si>
+    <t>esd</t>
+  </si>
+  <si>
+    <t>kenneth</t>
+  </si>
+  <si>
+    <t>rae</t>
+  </si>
+  <si>
+    <t>ryan</t>
+  </si>
+  <si>
+    <t>joyce</t>
+  </si>
+  <si>
+    <t>leny</t>
+  </si>
+  <si>
+    <t>roztle</t>
+  </si>
+  <si>
+    <t>rex</t>
+  </si>
+  <si>
+    <t>rudini</t>
+  </si>
+  <si>
+    <t>inah</t>
+  </si>
+  <si>
+    <t>yerrick</t>
+  </si>
+  <si>
+    <t>john paul</t>
+  </si>
+  <si>
+    <t>businessintelligence</t>
+  </si>
+  <si>
+    <t>cdninstisrm</t>
+  </si>
+  <si>
+    <t>cdnretailsrm</t>
+  </si>
+  <si>
+    <t>customerexperiencemanagement</t>
+  </si>
+  <si>
+    <t>globalreporting</t>
+  </si>
+  <si>
+    <t>gsddatabaseadministration</t>
+  </si>
+  <si>
+    <t>gsddigitalandcollaborationplatformservices</t>
+  </si>
+  <si>
+    <t>gsdgfl2appsupport</t>
+  </si>
+  <si>
+    <t>gsdifsissupport</t>
+  </si>
+  <si>
+    <t>gsdinvappsupport</t>
+  </si>
+  <si>
+    <t>gsdinvestmentinformationservices</t>
+  </si>
+  <si>
+    <t>gsdisaccountingsupport</t>
+  </si>
+  <si>
+    <t>gsdplatformadmin</t>
+  </si>
+  <si>
+    <t>gsdpmas</t>
+  </si>
+  <si>
+    <t>gsdproductionservices</t>
+  </si>
+  <si>
+    <t>gsdqlikviewdevelopment</t>
+  </si>
+  <si>
+    <t>gsdreleasemanagement</t>
+  </si>
+  <si>
+    <t>gsdschedulingautomation</t>
+  </si>
+  <si>
+    <t>gsdsystemadministrator</t>
+  </si>
+  <si>
+    <t>gsdsystemsandplatformoperationservices</t>
+  </si>
+  <si>
+    <t>integrationtechservices</t>
+  </si>
+  <si>
+    <t>jhdevelopmentandsupportservices</t>
+  </si>
+  <si>
+    <t>jhinfosecmgt</t>
+  </si>
+  <si>
+    <t>jhitops</t>
+  </si>
+  <si>
+    <t>jhsasdatabase</t>
+  </si>
+  <si>
+    <t>jhsasdatamasking</t>
+  </si>
+  <si>
+    <t>jhsasplatformservices</t>
+  </si>
+  <si>
+    <t>jhsasrem</t>
+  </si>
+  <si>
+    <t>jhtass</t>
+  </si>
+  <si>
+    <t>transitionservices</t>
+  </si>
+  <si>
+    <t>31F3DC21-C6DB-4534-9B60-C4CA40A5359B</t>
+  </si>
+  <si>
+    <t>52865E93-BBA1-4E8B-A4DC-C442386D7B5C</t>
+  </si>
+  <si>
+    <t>8FC0FC5A-7084-4F94-921B-749E343D66A2</t>
+  </si>
+  <si>
+    <t>A8091A98-0FDD-4D85-8E62-7C81E75F2339</t>
+  </si>
+  <si>
+    <t>9D6FE60E-EABC-4997-B8AF-82DE5C800C52</t>
+  </si>
+  <si>
+    <t>178D7898-D428-47B9-AE32-85DAB7F32009</t>
+  </si>
+  <si>
+    <t>4435B1DB-937D-4ABA-AF6E-90BEE46C319A</t>
+  </si>
+  <si>
+    <t>18B55482-BCB5-48A2-B8F2-91A26D6272A7</t>
+  </si>
+  <si>
+    <t>8FE063AD-F575-424C-9111-A1BC99AF4CF5</t>
+  </si>
+  <si>
+    <t>62F2F81A-58A9-4403-BF67-B996FAB0BD89</t>
+  </si>
+  <si>
+    <t>91416A7B-14D7-462A-9A54-D05136D2BA87</t>
+  </si>
+  <si>
+    <t>27A375CF-D726-4BFB-8E89-E1A668268208</t>
+  </si>
+  <si>
+    <t>D9A40F49-0D29-4060-8F50-E216F68308AD</t>
+  </si>
+  <si>
+    <t>90FF6580-9BFF-49D3-ABEC-E5E3C99CBA3F</t>
+  </si>
+  <si>
+    <t>30A25D7D-9466-4682-8A09-F96B95F66F0D</t>
+  </si>
+  <si>
+    <t>7AFF88A4-9F86-4B45-9208-E9A748C379E3</t>
+  </si>
+  <si>
+    <t>63A65AB2-D8A9-4C5E-A0F1-E81B9D3D5966</t>
+  </si>
+  <si>
+    <t>93ABA60B-1303-4BCA-8626-E7195B9CB8ED</t>
+  </si>
+  <si>
+    <t>7A368300-C1DF-43D7-82FA-18DB0E6368EF</t>
+  </si>
+  <si>
+    <t>9F72B4DC-24D2-4296-AA6E-2289AB462B1B</t>
+  </si>
+  <si>
+    <t>41E4ECCD-5FAD-4330-8C64-297BF7ADC415</t>
+  </si>
+  <si>
+    <t>78E30277-1777-410E-AEDE-2D008214CD80</t>
+  </si>
+  <si>
+    <t>6E2FE388-A2C0-4C74-8095-338B7D990EE3</t>
+  </si>
+  <si>
+    <t>BE908721-253C-46A7-AA65-343AFE0DE806</t>
+  </si>
+  <si>
+    <t>D64B9EFC-854D-4F42-A7EE-462582D4E11D</t>
+  </si>
+  <si>
+    <t>8BE6A978-4089-46BB-9477-46EA5DF18A3C</t>
+  </si>
+  <si>
+    <t>7D25B9D5-6E2B-44BF-972C-4819643CF9A1</t>
+  </si>
+  <si>
+    <t>E833CA89-6639-4102-B848-486F53F7FB3A</t>
+  </si>
+  <si>
+    <t>0DE54718-45E6-4730-8B2E-5055494E7129</t>
+  </si>
+  <si>
+    <t>1343865D-0277-42C6-8CB5-518D884E53E4</t>
+  </si>
+  <si>
+    <t>E343CA75-E3B4-4C2B-846C-69702C18AE32</t>
+  </si>
+  <si>
+    <t>A3903538-22F8-4050-80CE-737C38A12CF0</t>
+  </si>
+  <si>
+    <t>1dc6e0a4-90d8-4719-b3ae-13d1e880f0b0</t>
+  </si>
+  <si>
+    <t>cd6c26ed-04c1-4365-8490-2be8d15f1509</t>
+  </si>
+  <si>
+    <t>5348bed9-d6fc-475d-b874-5f1ba81e5f9a</t>
+  </si>
+  <si>
+    <t>7d490ee5-864d-40e6-9274-f183bcd7bd31</t>
+  </si>
+  <si>
+    <t>c288af5d-9158-4816-844f-c99d6ffcd97d</t>
+  </si>
+  <si>
+    <t>8d0d42ca-726f-4777-bc6e-080a476b24fb</t>
+  </si>
+  <si>
+    <t>8a43576a-264c-40ad-a9f8-a45390efa421</t>
+  </si>
+  <si>
+    <t>a738f0cc-2f70-4e88-96c6-8fe050c21111</t>
+  </si>
+  <si>
+    <t>5dc3f57d-67a0-47c1-83f9-6623479e2703</t>
+  </si>
+  <si>
+    <t>d00a5613-cd63-484d-bbc4-d5222f7971ae</t>
+  </si>
+  <si>
+    <t>46447d2b-c5f6-4d4a-8df8-2a6af68877f3</t>
+  </si>
+  <si>
+    <t>9c143beb-4fc3-46ab-8a3a-414fe2997582</t>
+  </si>
+  <si>
+    <t>567a11e1-af72-4c85-a8f7-0080aab0219d</t>
+  </si>
+  <si>
+    <t>f3b378e2-19e4-4667-8d41-13dbc5a03184</t>
+  </si>
+  <si>
+    <t>594370e4-4f40-4695-b337-348e66fd349a</t>
+  </si>
+  <si>
+    <t>e2103eb4-4129-49b2-a5af-f1e769f3f43c</t>
+  </si>
+  <si>
+    <t>806a3876-effa-40f9-8bb1-3e5e5c805d44</t>
+  </si>
+  <si>
+    <t>7a20d4d2-81f1-4854-8d95-4e5955c6aef4</t>
+  </si>
+  <si>
+    <t>f379dae1-5670-42fe-9e62-99a352dabc65</t>
+  </si>
+  <si>
+    <t>be365b75-32f5-4e26-a65e-3e93d8d9a7d3</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/ana.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/arvan.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/cyren.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/denmar.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/DSS.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/Gelo.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/gk.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/Harri.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/Inah.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/joyce.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/kenneth.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/leny.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/paulyn.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/rex.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/richard.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/roztle.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/rudi.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/ryan.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/tim.mp4</t>
+  </si>
+  <si>
+    <t>resources/workplace/03LEADERS/yerrick.mp4</t>
+  </si>
+  <si>
+    <t>Leaders</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>567a11e1-af72-4c85-a8f7-0080aab0219e</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,8 +1355,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -995,11 +1385,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1011,6 +1414,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,7 +3482,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E2:E33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,7 +4597,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -4199,294 +4606,1604 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" t="s">
+      <c r="B67" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" t="s">
+      <c r="B68" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" t="s">
+      <c r="B69" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" t="s">
+      <c r="B70" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="12" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" t="s">
+      <c r="B71" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="12" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" t="s">
+      <c r="B72" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" t="s">
+      <c r="B73" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" t="s">
+      <c r="B74" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="12" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" t="s">
+      <c r="B75" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" t="s">
+      <c r="B76" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" t="s">
+      <c r="B77" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
-      <c r="B78" t="s">
+      <c r="B78" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="12" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
-      <c r="B80" t="s">
+      <c r="B80" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
-      <c r="B81" t="s">
+      <c r="B81" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="12" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" t="s">
+      <c r="B82" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" t="s">
+      <c r="B83" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" t="s">
+      <c r="B84" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="12" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" t="s">
+      <c r="B85" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="12" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
-      <c r="B86" t="s">
+      <c r="B86" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
-      <c r="B87" t="s">
+      <c r="B87" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="12" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
-      <c r="B88" t="s">
+      <c r="B88" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" t="s">
+      <c r="B89" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="12" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
-      <c r="B90" t="s">
+      <c r="B90" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="12" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
-      <c r="B91" t="s">
+      <c r="B91" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="12" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
-      <c r="B92" t="s">
+      <c r="B92" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="12" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
-      <c r="B93" t="s">
+      <c r="B93" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="12" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
-      <c r="B94" t="s">
+      <c r="B94" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="12" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
-      <c r="B95" t="s">
+      <c r="B95" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="12" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
-      <c r="B96" t="s">
+      <c r="B96" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="12" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
-      <c r="B97" t="s">
+      <c r="B97" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="12" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
-      <c r="B98" t="s">
+      <c r="B98" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="12" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
+      <c r="B99" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" t="s">
+        <v>371</v>
+      </c>
+      <c r="E27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" t="s">
+        <v>365</v>
+      </c>
+      <c r="E34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>371</v>
+      </c>
+      <c r="E43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>374</v>
+      </c>
+      <c r="E44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>381</v>
+      </c>
+      <c r="E46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>380</v>
+      </c>
+      <c r="E47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>365</v>
+      </c>
+      <c r="E48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E34">
+    <sortState ref="A2:E34">
+      <sortCondition ref="B1:B34"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
